--- a/ExcelReaderScript/Output2.xlsx
+++ b/ExcelReaderScript/Output2.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="33">
   <si>
     <t>Testcase name</t>
   </si>
   <si>
     <t>Testcase verdict</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Review comment</t>
@@ -467,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,471 +513,513 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
         <v>18</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>5</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
-      <c r="J4">
-        <v>5</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>5</v>
-      </c>
-      <c r="K11">
-        <v>6</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
-      </c>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
-      </c>
-      <c r="J14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14">
-        <v>6</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21">
         <v>2</v>
@@ -992,24 +1037,24 @@
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1027,24 +1072,24 @@
         <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -1062,24 +1107,24 @@
         <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24">
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1097,24 +1142,24 @@
         <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1132,21 +1177,21 @@
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26">
         <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1158,27 +1203,27 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K26">
         <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -1190,27 +1235,27 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K27">
         <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1222,13 +1267,13 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K28">
         <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
